--- a/metaData/mozambique-2014_vignettes_codebook.xlsx
+++ b/metaData/mozambique-2014_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0830EA36-C4A4-498F-AA4B-7EB7F64FF46E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81EA9175-7050-4572-943C-8C26AD1D6C03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3969,9 +3969,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>In Mozambique survey, item is "hemoglobin/full blood count"</t>
   </si>
   <si>
@@ -4150,6 +4147,9 @@
   </si>
   <si>
     <t>Did not do diarrhea+dehydration vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4714,8 +4714,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4773,7 +4773,7 @@
         <v>1283</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -4785,7 +4785,7 @@
         <v>1284</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -4797,7 +4797,7 @@
         <v>1286</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -4829,7 +4829,7 @@
         <v>1290</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>582</v>
@@ -4843,7 +4843,7 @@
         <v>1291</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -4855,7 +4855,7 @@
         <v>1292</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -4867,7 +4867,7 @@
         <v>1293</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -4879,16 +4879,16 @@
         <v>1294</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>1360</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1361</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="10"/>
@@ -4901,7 +4901,7 @@
         <v>238</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -4910,10 +4910,10 @@
         <v>1295</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>582</v>
@@ -4927,7 +4927,7 @@
         <v>579</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>582</v>
@@ -4938,10 +4938,10 @@
         <v>1297</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>582</v>
@@ -4952,10 +4952,10 @@
         <v>1298</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>582</v>
@@ -4966,10 +4966,10 @@
         <v>1299</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>582</v>
@@ -4980,10 +4980,10 @@
         <v>1300</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>582</v>
@@ -4994,10 +4994,10 @@
         <v>1301</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>582</v>
@@ -5026,7 +5026,7 @@
         <v>1306</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1307</v>
+        <v>1367</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -5038,23 +5038,23 @@
         <v>581</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>1356</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>1358</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -5108,7 +5108,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>587</v>
@@ -5123,7 +5123,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>587</v>
@@ -5138,7 +5138,7 @@
         <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>587</v>
@@ -5153,7 +5153,7 @@
         <v>144</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>587</v>
@@ -5168,7 +5168,7 @@
         <v>149</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>587</v>
@@ -5183,7 +5183,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>587</v>
@@ -5198,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>587</v>
@@ -5213,7 +5213,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>587</v>
@@ -5228,7 +5228,7 @@
         <v>150</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>587</v>
@@ -5243,7 +5243,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>587</v>
@@ -5269,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>587</v>
@@ -5284,7 +5284,7 @@
         <v>1012</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>587</v>
@@ -5299,7 +5299,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>587</v>
@@ -5314,7 +5314,7 @@
         <v>1014</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>587</v>
@@ -5329,7 +5329,7 @@
         <v>151</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>587</v>
@@ -5344,7 +5344,7 @@
         <v>145</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>587</v>
@@ -5359,7 +5359,7 @@
         <v>146</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>587</v>
@@ -5374,7 +5374,7 @@
         <v>152</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>587</v>
@@ -5389,7 +5389,7 @@
         <v>153</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>587</v>
@@ -5404,7 +5404,7 @@
         <v>1015</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>587</v>
@@ -5419,7 +5419,7 @@
         <v>147</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>587</v>
@@ -5434,7 +5434,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>587</v>
@@ -5449,7 +5449,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>587</v>
@@ -8558,7 +8558,7 @@
         <v>198</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>587</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>1355</v>
       </c>
     </row>
   </sheetData>
@@ -10608,7 +10608,7 @@
         <v>587</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -10676,7 +10676,7 @@
         <v>587</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -11179,7 +11179,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="17" t="s">
         <v>1031</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>587</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>593</v>
@@ -16199,24 +16199,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B7" s="24">
         <v>0</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B8" s="24">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
   </sheetData>
